--- a/BackTest/2019-10-31 BackTest PAY.xlsx
+++ b/BackTest/2019-10-31 BackTest PAY.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>8.800000000000011</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>15.94202898550715</v>
+      </c>
       <c r="L12" t="n">
         <v>92.53</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-10.71428571428562</v>
+      </c>
       <c r="L13" t="n">
         <v>92.61999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>9.700000000000003</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>6.382978723404191</v>
+      </c>
       <c r="L14" t="n">
         <v>92.48999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>10.3</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-15.78947368421076</v>
+      </c>
       <c r="L15" t="n">
         <v>92.58</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>10.5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-12.8205128205128</v>
+      </c>
       <c r="L16" t="n">
         <v>92.53999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>10.5</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-12.8205128205128</v>
+      </c>
       <c r="L17" t="n">
         <v>92.48999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>10.59999999999999</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-14.99999999999986</v>
+      </c>
       <c r="L18" t="n">
         <v>92.42999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>10.69999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>16.12903225806455</v>
+      </c>
       <c r="L19" t="n">
         <v>92.38</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>10.79999999999998</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-21.73913043478277</v>
+      </c>
       <c r="L20" t="n">
         <v>92.41999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>10.79999999999998</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-9.999999999999574</v>
+      </c>
       <c r="L21" t="n">
         <v>92.36999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>11.59999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-30.76923076923127</v>
+      </c>
       <c r="L22" t="n">
         <v>92.27</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>1.030927835051489</v>
+        <v>-5.263157894737314</v>
       </c>
       <c r="L23" t="n">
         <v>92.19</v>
@@ -1466,7 +1488,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>-17.07317073170741</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L24" t="n">
         <v>92.17999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>-15.00000000000006</v>
+        <v>-92.00000000000041</v>
       </c>
       <c r="L25" t="n">
         <v>91.97</v>
@@ -1564,7 +1586,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-41.53846153846168</v>
+        <v>-92.00000000000041</v>
       </c>
       <c r="L26" t="n">
         <v>91.74000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-43.75000000000001</v>
+        <v>-91.66666666666711</v>
       </c>
       <c r="L27" t="n">
         <v>91.51000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>14.59999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>-15.00000000000006</v>
+        <v>-17.94871794871806</v>
       </c>
       <c r="L28" t="n">
         <v>91.45000000000002</v>
@@ -1711,7 +1733,7 @@
         <v>14.59999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>-15.00000000000006</v>
+        <v>-15.78947368421076</v>
       </c>
       <c r="L29" t="n">
         <v>91.38000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>-40.86956521739138</v>
+        <v>-61.44578313253024</v>
       </c>
       <c r="L30" t="n">
         <v>90.87</v>
@@ -1809,7 +1831,7 @@
         <v>23.39999999999998</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.724832214765192</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>90.79000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>24.49999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>-13.37579617834395</v>
+        <v>-8.527131782945707</v>
       </c>
       <c r="L32" t="n">
         <v>90.68000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>26.79999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>-23.59550561797759</v>
+        <v>-22.36842105263156</v>
       </c>
       <c r="L33" t="n">
         <v>90.34</v>
@@ -1962,7 +1984,7 @@
         <v>29.09999999999997</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.185567010309305</v>
+        <v>1.863354037267066</v>
       </c>
       <c r="L34" t="n">
         <v>90.23</v>
@@ -2013,7 +2035,7 @@
         <v>30.79999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>-17.07317073170734</v>
+        <v>-7.865168539325882</v>
       </c>
       <c r="L35" t="n">
         <v>90.09</v>
@@ -2064,7 +2086,7 @@
         <v>30.89999999999996</v>
       </c>
       <c r="K36" t="n">
-        <v>-18.62745098039218</v>
+        <v>-8.379888268156435</v>
       </c>
       <c r="L36" t="n">
         <v>89.94</v>
@@ -2115,7 +2137,7 @@
         <v>33.89999999999996</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.418803418803412</v>
+        <v>-0.5181347150258777</v>
       </c>
       <c r="L37" t="n">
         <v>90.09</v>
@@ -2166,7 +2188,7 @@
         <v>33.99999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.418803418803471</v>
+        <v>-1.030927835051561</v>
       </c>
       <c r="L38" t="n">
         <v>90.07000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>36.89999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.50381679389313</v>
+        <v>7.865168539325882</v>
       </c>
       <c r="L39" t="n">
         <v>89.76000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>39.09999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.300353356890462</v>
+        <v>-4.45859872611458</v>
       </c>
       <c r="L40" t="n">
         <v>90.12000000000002</v>
@@ -2319,7 +2341,7 @@
         <v>39.19999999999996</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.929577464788756</v>
+        <v>3.40136054421769</v>
       </c>
       <c r="L41" t="n">
         <v>90.06000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>39.29999999999995</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.527075812274331</v>
+        <v>21.60000000000005</v>
       </c>
       <c r="L42" t="n">
         <v>90.10000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>39.29999999999995</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.527075812274331</v>
+        <v>3.921568627451041</v>
       </c>
       <c r="L43" t="n">
         <v>90.37</v>
@@ -2472,7 +2494,7 @@
         <v>41.59999999999997</v>
       </c>
       <c r="K44" t="n">
-        <v>-10.00000000000001</v>
+        <v>-1.851851851851879</v>
       </c>
       <c r="L44" t="n">
         <v>90.18000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>41.89999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.574394463667844</v>
+        <v>-3.636363636363688</v>
       </c>
       <c r="L45" t="n">
         <v>90.13000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>41.99999999999996</v>
       </c>
       <c r="K46" t="n">
-        <v>-6.896551724137938</v>
+        <v>-43.20987654320991</v>
       </c>
       <c r="L46" t="n">
         <v>90.08000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>42.59999999999995</v>
       </c>
       <c r="K47" t="n">
-        <v>-4.729729729729755</v>
+        <v>-32.55813953488376</v>
       </c>
       <c r="L47" t="n">
         <v>89.78999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>43.19999999999995</v>
       </c>
       <c r="K48" t="n">
-        <v>-12.58741258741258</v>
+        <v>-7.936507936507958</v>
       </c>
       <c r="L48" t="n">
         <v>89.45</v>
@@ -2727,7 +2749,7 @@
         <v>43.99999999999994</v>
       </c>
       <c r="K49" t="n">
-        <v>-14.96598639455781</v>
+        <v>-71.42857142857176</v>
       </c>
       <c r="L49" t="n">
         <v>89.31999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>45.29999999999994</v>
       </c>
       <c r="K50" t="n">
-        <v>5.343511450381709</v>
+        <v>-37.70491803278696</v>
       </c>
       <c r="L50" t="n">
         <v>89.09999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>45.39999999999993</v>
       </c>
       <c r="K51" t="n">
-        <v>-12.72727272727274</v>
+        <v>-34.42622950819698</v>
       </c>
       <c r="L51" t="n">
         <v>88.88</v>
@@ -2880,7 +2902,7 @@
         <v>47.29999999999994</v>
       </c>
       <c r="K52" t="n">
-        <v>0.877192982456154</v>
+        <v>-2.50000000000004</v>
       </c>
       <c r="L52" t="n">
         <v>88.86</v>
@@ -2931,7 +2953,7 @@
         <v>47.39999999999993</v>
       </c>
       <c r="K53" t="n">
-        <v>12.62135922330097</v>
+        <v>37.93103448275888</v>
       </c>
       <c r="L53" t="n">
         <v>88.84999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>47.49999999999993</v>
       </c>
       <c r="K54" t="n">
-        <v>1.086956521739148</v>
+        <v>42.85714285714322</v>
       </c>
       <c r="L54" t="n">
         <v>89.06</v>
@@ -3033,7 +3055,7 @@
         <v>47.49999999999993</v>
       </c>
       <c r="K55" t="n">
-        <v>11.3772455089821</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L55" t="n">
         <v>89.30000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>47.49999999999993</v>
       </c>
       <c r="K56" t="n">
-        <v>12.04819277108436</v>
+        <v>38.77551020408193</v>
       </c>
       <c r="L56" t="n">
         <v>89.55000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>47.49999999999993</v>
       </c>
       <c r="K57" t="n">
-        <v>-7.352941176470607</v>
+        <v>58.13953488372115</v>
       </c>
       <c r="L57" t="n">
         <v>89.74000000000002</v>
@@ -3186,7 +3208,7 @@
         <v>48.19999999999993</v>
       </c>
       <c r="K58" t="n">
-        <v>-11.26760563380281</v>
+        <v>61.90476190476194</v>
       </c>
       <c r="L58" t="n">
         <v>89.92000000000002</v>
@@ -3237,7 +3259,7 @@
         <v>50.39999999999993</v>
       </c>
       <c r="K59" t="n">
-        <v>-6.666666666666724</v>
+        <v>-17.64705882352954</v>
       </c>
       <c r="L59" t="n">
         <v>89.96000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>52.99999999999994</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.597122302158279</v>
+        <v>21.05263157894746</v>
       </c>
       <c r="L60" t="n">
         <v>90.13000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>53.09999999999995</v>
       </c>
       <c r="K61" t="n">
-        <v>-5.035971223021606</v>
+        <v>-6.896551724138016</v>
       </c>
       <c r="L61" t="n">
         <v>90.28</v>
@@ -3390,7 +3412,7 @@
         <v>53.29999999999995</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.857142857142898</v>
+        <v>-5.084745762711798</v>
       </c>
       <c r="L62" t="n">
         <v>90.26000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>53.29999999999995</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.857142857142898</v>
+        <v>-3.448275862068999</v>
       </c>
       <c r="L63" t="n">
         <v>90.23</v>
@@ -3492,7 +3514,7 @@
         <v>53.79999999999995</v>
       </c>
       <c r="K64" t="n">
-        <v>11.47540983606563</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L64" t="n">
         <v>90.16</v>
@@ -3543,7 +3565,7 @@
         <v>55.99999999999996</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.546099290780143</v>
+        <v>-34.11764705882348</v>
       </c>
       <c r="L65" t="n">
         <v>89.86999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>57.79999999999995</v>
       </c>
       <c r="K66" t="n">
-        <v>8.860759493670834</v>
+        <v>-10.67961165048549</v>
       </c>
       <c r="L66" t="n">
         <v>89.75999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>57.89999999999996</v>
       </c>
       <c r="K67" t="n">
-        <v>5.882352941176503</v>
+        <v>-3.0927835051546</v>
       </c>
       <c r="L67" t="n">
         <v>89.66</v>
@@ -3696,7 +3718,7 @@
         <v>58.49999999999996</v>
       </c>
       <c r="K68" t="n">
-        <v>13.72549019607839</v>
+        <v>30.86419753086411</v>
       </c>
       <c r="L68" t="n">
         <v>89.68999999999998</v>
@@ -3747,7 +3769,7 @@
         <v>58.59999999999997</v>
       </c>
       <c r="K69" t="n">
-        <v>20.54794520547942</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>89.94999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>58.99999999999996</v>
       </c>
       <c r="K70" t="n">
-        <v>15.32846715328461</v>
+        <v>8.474576271186432</v>
       </c>
       <c r="L70" t="n">
         <v>89.98999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>59.19999999999996</v>
       </c>
       <c r="K71" t="n">
-        <v>15.94202898550724</v>
+        <v>8.474576271186432</v>
       </c>
       <c r="L71" t="n">
         <v>90.05999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>59.49999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>4.918032786885193</v>
+        <v>12.90322580645156</v>
       </c>
       <c r="L72" t="n">
         <v>90.13999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>59.69999999999996</v>
       </c>
       <c r="K73" t="n">
-        <v>2.439024390243874</v>
+        <v>18.64406779661006</v>
       </c>
       <c r="L73" t="n">
         <v>90.19999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>59.89999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>4.838709677419295</v>
+        <v>89.74358974358961</v>
       </c>
       <c r="L74" t="n">
         <v>90.32999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>60.69999999999996</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.515151515151533</v>
+        <v>31.03448275862083</v>
       </c>
       <c r="L75" t="n">
         <v>90.59999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>61.59999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>-7.801418439716352</v>
+        <v>-2.702702702702931</v>
       </c>
       <c r="L76" t="n">
         <v>90.59999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>62.69999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-14.4736842105263</v>
+        <v>-42.85714285714276</v>
       </c>
       <c r="L77" t="n">
         <v>90.47999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>64.89999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>4.191616766467075</v>
+        <v>4.761904761904718</v>
       </c>
       <c r="L78" t="n">
         <v>90.52</v>
@@ -4257,7 +4279,7 @@
         <v>66.79999999999997</v>
       </c>
       <c r="K79" t="n">
-        <v>6.097560975609744</v>
+        <v>-25.64102564102561</v>
       </c>
       <c r="L79" t="n">
         <v>90.35999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>66.89999999999998</v>
       </c>
       <c r="K80" t="n">
-        <v>-10.79136690647479</v>
+        <v>-27.27272727272714</v>
       </c>
       <c r="L80" t="n">
         <v>90.16999999999999</v>

--- a/BackTest/2019-10-31 BackTest PAY.xlsx
+++ b/BackTest/2019-10-31 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-270513.5609999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-270513.5609999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85.3</v>
       </c>
       <c r="J3" t="n">
         <v>85.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-270513.5609999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.3</v>
       </c>
       <c r="J4" t="n">
         <v>85.3</v>
       </c>
-      <c r="K4" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-270503.4409999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.3</v>
       </c>
       <c r="J5" t="n">
         <v>85.3</v>
       </c>
-      <c r="K5" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,15 @@
         <v>-282125.6244999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +636,15 @@
         <v>-279813.7219999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +669,15 @@
         <v>-280613.7219999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -754,22 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,22 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -838,22 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,22 +803,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -922,22 +836,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -964,22 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1006,22 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,22 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1090,22 +968,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1132,22 +1001,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1174,22 +1034,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1216,22 +1067,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1258,22 +1100,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1300,22 +1133,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1342,22 +1166,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1384,22 +1199,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1426,22 +1232,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1468,22 +1265,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1510,22 +1298,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1552,22 +1331,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1594,22 +1364,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1636,22 +1397,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1678,22 +1430,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1720,22 +1463,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1762,22 +1496,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1804,22 +1529,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1846,22 +1562,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1888,22 +1595,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1930,22 +1628,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1972,22 +1661,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2014,22 +1694,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2056,22 +1727,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2098,22 +1760,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2140,22 +1793,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2182,22 +1826,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2224,22 +1859,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2266,22 +1892,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2308,22 +1925,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2350,22 +1958,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2392,22 +1991,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2434,22 +2024,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2474,24 +2055,15 @@
         <v>-156200.0753</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2516,24 +2088,15 @@
         <v>-156200.0753</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2558,24 +2121,15 @@
         <v>-152907.0753</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2602,22 +2156,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2644,22 +2189,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2684,24 +2220,15 @@
         <v>-149776.0753</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2728,24 +2255,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1.084097303634232</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.009378663540445</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2770,18 +2286,15 @@
         <v>-151735.0753</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2806,18 +2319,15 @@
         <v>-153738.0753</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2842,18 +2352,15 @@
         <v>-143061.6776</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2878,18 +2385,15 @@
         <v>-128736.8433</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2916,16 +2420,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2950,18 +2451,15 @@
         <v>-134006.5814</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2986,18 +2484,15 @@
         <v>-126119.5814</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3022,18 +2517,15 @@
         <v>-133142.3854</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3058,18 +2550,15 @@
         <v>-131942.3854</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3094,18 +2583,15 @@
         <v>-127542.3854</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3130,18 +2616,15 @@
         <v>-127542.3854</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3168,16 +2651,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3202,18 +2682,15 @@
         <v>-137699.5062</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3238,18 +2715,15 @@
         <v>-137299.5062</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3276,16 +2750,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3310,18 +2781,15 @@
         <v>-146046.0448</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3346,18 +2814,15 @@
         <v>-150393.185</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3384,16 +2849,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3420,16 +2882,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3456,16 +2915,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3492,16 +2948,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3528,16 +2981,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3564,16 +3014,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3600,16 +3047,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3636,16 +3080,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3672,16 +3113,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3708,16 +3146,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3744,16 +3179,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3778,18 +3210,15 @@
         <v>-150404.6127</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3814,18 +3243,15 @@
         <v>-150404.6127</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3852,16 +3278,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3888,16 +3311,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3924,16 +3344,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3960,16 +3377,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3996,16 +3410,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4032,16 +3443,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4068,16 +3476,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4104,16 +3509,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4140,16 +3542,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4176,16 +3575,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4212,16 +3608,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4248,16 +3641,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4284,16 +3674,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4320,16 +3707,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4356,16 +3740,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4392,16 +3773,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4428,16 +3806,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4464,16 +3839,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4500,16 +3872,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4536,16 +3905,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4572,16 +3938,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4608,16 +3971,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4644,16 +4004,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4680,16 +4037,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4716,16 +4070,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4752,16 +4103,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4788,16 +4136,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4824,16 +4169,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4860,16 +4202,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4896,16 +4235,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4932,16 +4268,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4968,16 +4301,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5004,16 +4334,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5040,16 +4367,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5076,16 +4400,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5112,16 +4433,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5148,16 +4466,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5184,16 +4499,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5220,16 +4532,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5256,16 +4565,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5292,16 +4598,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5328,18 +4631,15 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest PAY.xlsx
+++ b/BackTest/2019-10-31 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-270513.5609999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-270513.5609999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>85.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-270513.5609999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-270503.4409999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -636,10 +616,14 @@
         <v>-279813.7219999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>85.8</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -672,8 +656,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,11 +692,19 @@
         <v>-279013.7219999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,11 +766,17 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>86</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -801,11 +805,17 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>86.2</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -834,11 +844,17 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>86.2</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,11 +883,17 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>86.2</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,11 +922,17 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>86.2</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -937,7 +965,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -970,7 +1002,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -999,11 +1035,17 @@
         <v>-277026.0137999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>85.8</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +1074,17 @@
         <v>-277026.0137999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>86.2</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1065,11 +1113,17 @@
         <v>-278626.0137999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>86.2</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1098,11 +1152,17 @@
         <v>-278473.0137999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>85.5</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1131,11 +1191,17 @@
         <v>-276800.0137999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>86.8</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1168,7 +1234,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1201,7 +1271,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1234,7 +1308,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1267,7 +1345,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1300,7 +1382,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1419,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1366,7 +1456,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1399,7 +1493,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1432,7 +1530,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1465,7 +1567,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1498,7 +1604,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1531,7 +1641,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1564,7 +1678,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1597,7 +1715,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1630,7 +1752,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1663,7 +1789,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1696,7 +1826,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1729,7 +1863,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1762,7 +1900,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1795,7 +1937,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1828,7 +1974,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1861,7 +2011,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1894,7 +2048,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1927,7 +2085,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1960,7 +2122,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1993,7 +2159,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2026,7 +2196,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2055,11 +2229,15 @@
         <v>-156200.0753</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,11 +2266,15 @@
         <v>-156200.0753</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,11 +2303,15 @@
         <v>-152907.0753</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2158,7 +2344,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2191,7 +2381,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2220,11 +2414,15 @@
         <v>-149776.0753</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2257,7 +2455,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2488,15 @@
         <v>-151735.0753</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,11 +2525,15 @@
         <v>-153738.0753</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,11 +2562,15 @@
         <v>-143061.6776</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2599,15 @@
         <v>-128736.8433</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2422,7 +2640,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2673,15 @@
         <v>-134006.5814</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,11 +2710,15 @@
         <v>-126119.5814</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,11 +2747,15 @@
         <v>-133142.3854</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,11 +2784,15 @@
         <v>-131942.3854</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2821,15 @@
         <v>-127542.3854</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,11 +2858,15 @@
         <v>-127542.3854</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2653,7 +2899,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,11 +2932,15 @@
         <v>-137699.5062</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,11 +2969,15 @@
         <v>-137299.5062</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2752,7 +3010,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,11 +3043,15 @@
         <v>-146046.0448</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +3080,15 @@
         <v>-150393.185</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2851,7 +3121,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2884,7 +3158,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2917,7 +3195,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2950,7 +3232,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2983,7 +3269,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,14 +3302,16 @@
         <v>-146643.6919</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3045,7 +3337,7 @@
         <v>-146643.6919</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3078,7 +3370,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3111,7 +3403,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3144,7 +3436,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3177,7 +3469,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3210,7 +3502,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3243,7 +3535,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3276,7 +3568,7 @@
         <v>-150394.6127</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3309,7 +3601,7 @@
         <v>-150394.6127</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3342,7 +3634,7 @@
         <v>-173940.6127</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3375,7 +3667,7 @@
         <v>-173930.6127</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3408,7 +3700,7 @@
         <v>-173960.6127</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3441,7 +3733,7 @@
         <v>-174006.2127</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3474,7 +3766,7 @@
         <v>-173896.2127</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3507,7 +3799,7 @@
         <v>-173918.8567</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3606,7 +3898,7 @@
         <v>-173929.5171</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3639,7 +3931,7 @@
         <v>-173940.6127</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4640,6 +4932,6 @@
       <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest PAY.xlsx
+++ b/BackTest/2019-10-31 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,14 +616,10 @@
         <v>-279813.7219999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>85.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -656,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -692,19 +682,11 @@
         <v>-279013.7219999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -766,17 +748,11 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -805,17 +781,11 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>86.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -844,17 +814,11 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>86.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,17 +847,11 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>86.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -922,17 +880,11 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>86.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -965,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1002,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1035,17 +979,11 @@
         <v>-277026.0137999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>85.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1074,17 +1012,11 @@
         <v>-277026.0137999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>86.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1113,17 +1045,11 @@
         <v>-278626.0137999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>86.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1157,12 +1083,10 @@
       <c r="I21" t="n">
         <v>85.5</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1196,10 +1120,12 @@
       <c r="I22" t="n">
         <v>86.8</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>85.5</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1233,10 +1159,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>85.5</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1271,11 +1199,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1308,11 +1232,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1345,11 +1265,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1382,11 +1298,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1419,11 +1331,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1456,11 +1364,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1493,11 +1397,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1530,11 +1430,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1567,11 +1463,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1604,11 +1496,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1641,11 +1529,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1678,11 +1562,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1715,11 +1595,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1752,11 +1628,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,15 +1657,11 @@
         <v>-222446.0435999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,15 +1690,11 @@
         <v>-219646.0435999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1863,11 +1727,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,15 +1756,11 @@
         <v>-205010.1496999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,15 +1789,11 @@
         <v>-214977.2703999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,15 +1822,11 @@
         <v>-220369.2703999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,15 +1855,11 @@
         <v>-208411.2703999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,15 +1888,11 @@
         <v>-189969.4875999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,15 +1921,11 @@
         <v>-174348.1010999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,15 +1954,11 @@
         <v>-174042.1010999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,15 +1987,11 @@
         <v>-168641.0192</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,15 +2020,11 @@
         <v>-139787.474</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2057,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2270,11 +2090,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2307,11 +2123,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2156,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2189,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2222,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2455,11 +2255,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2288,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2321,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2354,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2387,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2420,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2677,11 +2453,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2486,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2519,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2552,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2585,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +2618,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2899,11 +2651,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2936,11 +2684,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2717,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +2750,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3047,11 +2783,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3084,11 +2816,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3121,11 +2849,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +2882,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +2915,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3232,11 +2948,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3269,11 +2981,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3302,16 +3010,14 @@
         <v>-146643.6919</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
       <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3337,7 +3043,7 @@
         <v>-146643.6919</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3370,7 +3076,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3403,7 +3109,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3436,7 +3142,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3469,7 +3175,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3502,7 +3208,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3535,7 +3241,7 @@
         <v>-150404.6127</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3568,7 +3274,7 @@
         <v>-150394.6127</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3601,7 +3307,7 @@
         <v>-150394.6127</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3634,7 +3340,7 @@
         <v>-173940.6127</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3667,7 +3373,7 @@
         <v>-173930.6127</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3700,7 +3406,7 @@
         <v>-173960.6127</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3733,7 +3439,7 @@
         <v>-174006.2127</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3766,7 +3472,7 @@
         <v>-173896.2127</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3799,7 +3505,7 @@
         <v>-173918.8567</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3898,7 +3604,7 @@
         <v>-173929.5171</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3931,7 +3637,7 @@
         <v>-173940.6127</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4789,7 +4495,7 @@
         <v>-219742.6711</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4855,7 +4561,7 @@
         <v>-218532.5611</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4921,7 +4627,7 @@
         <v>-200711.0439349945</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4932,6 +4638,6 @@
       <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest PAY.xlsx
+++ b/BackTest/2019-10-31 BackTest PAY.xlsx
@@ -847,10 +847,14 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>86.2</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -880,11 +884,19 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +925,19 @@
         <v>-275282.1970999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,10 +966,14 @@
         <v>-277036.0137999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>86.2</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -979,11 +1003,19 @@
         <v>-277026.0137999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1044,19 @@
         <v>-277026.0137999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1085,19 @@
         <v>-278626.0137999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1084,9 +1132,13 @@
         <v>85.5</v>
       </c>
       <c r="J21" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>86.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1121,11 +1173,11 @@
         <v>86.8</v>
       </c>
       <c r="J22" t="n">
-        <v>85.5</v>
+        <v>86.2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1160,11 +1212,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>85.5</v>
+        <v>86.2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1198,8 +1250,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1231,8 +1289,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1264,8 +1328,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1367,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1330,8 +1406,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1363,8 +1445,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1481,19 @@
         <v>-269011.0435999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1522,19 @@
         <v>-269011.0435999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J31" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1459,11 +1563,19 @@
         <v>-268550.0435999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1492,11 +1604,19 @@
         <v>-252125.0435999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1528,8 +1648,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1687,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1594,8 +1726,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1627,8 +1765,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1657,11 +1801,19 @@
         <v>-222446.0435999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1690,11 +1842,19 @@
         <v>-219646.0435999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1723,11 +1883,19 @@
         <v>-205270.1496999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1756,11 +1924,19 @@
         <v>-205010.1496999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1789,11 +1965,17 @@
         <v>-214977.2703999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +2004,19 @@
         <v>-220369.2703999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +2045,17 @@
         <v>-208411.2703999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1888,11 +2084,17 @@
         <v>-189969.4875999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1921,11 +2123,17 @@
         <v>-174348.1010999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1954,11 +2162,17 @@
         <v>-174042.1010999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1987,11 +2201,17 @@
         <v>-168641.0192</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2020,11 +2240,17 @@
         <v>-139787.474</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2053,15 +2279,23 @@
         <v>-156200.0753</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>1.062285382830626</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.011723329425557</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2086,7 +2320,7 @@
         <v>-156200.0753</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2119,7 +2353,7 @@
         <v>-152907.0753</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2152,7 +2386,7 @@
         <v>-152907.0753</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2419,7 @@
         <v>-147764.0753</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2218,7 +2452,7 @@
         <v>-149776.0753</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2251,7 +2485,7 @@
         <v>-152976.0753</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2284,7 +2518,7 @@
         <v>-151735.0753</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2317,7 +2551,7 @@
         <v>-153738.0753</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2350,7 +2584,7 @@
         <v>-143061.6776</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2617,7 @@
         <v>-128736.8433</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2416,7 +2650,7 @@
         <v>-128736.8433</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2683,7 @@
         <v>-134006.5814</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2716,7 @@
         <v>-126119.5814</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2749,7 @@
         <v>-133142.3854</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2581,7 +2815,7 @@
         <v>-127542.3854</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2848,7 @@
         <v>-127542.3854</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2881,7 @@
         <v>-127542.3854</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2914,7 @@
         <v>-137699.5062</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2947,7 @@
         <v>-137299.5062</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2980,7 @@
         <v>-145646.0448</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +3013,7 @@
         <v>-146046.0448</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +3046,7 @@
         <v>-150393.185</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2878,7 +3112,7 @@
         <v>-139096.6919</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +3145,7 @@
         <v>-139096.6919</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +3178,7 @@
         <v>-139526.6919</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +3211,7 @@
         <v>-139050.6919</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3244,7 @@
         <v>-146643.6919</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3277,7 @@
         <v>-146643.6919</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3310,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3343,7 @@
         <v>-148105.0127</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4495,7 +4729,7 @@
         <v>-219742.6711</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4561,7 +4795,7 @@
         <v>-218532.5611</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4627,7 +4861,7 @@
         <v>-200711.0439349945</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest PAY.xlsx
+++ b/BackTest/2019-10-31 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>961.0433</v>
       </c>
       <c r="G2" t="n">
-        <v>-270513.5609999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>800</v>
       </c>
       <c r="G3" t="n">
-        <v>-270513.5609999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>85.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>85.3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>7641.2867</v>
       </c>
       <c r="G4" t="n">
-        <v>-270513.5609999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>85.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>10.12</v>
       </c>
       <c r="G5" t="n">
-        <v>-270503.4409999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>85.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,15 @@
         <v>11622.1835</v>
       </c>
       <c r="G6" t="n">
-        <v>-282125.6244999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +613,15 @@
         <v>2311.9025</v>
       </c>
       <c r="G7" t="n">
-        <v>-279813.7219999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +643,15 @@
         <v>800</v>
       </c>
       <c r="G8" t="n">
-        <v>-280613.7219999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +673,15 @@
         <v>1600</v>
       </c>
       <c r="G9" t="n">
-        <v>-279013.7219999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +703,15 @@
         <v>3680</v>
       </c>
       <c r="G10" t="n">
-        <v>-279013.7219999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +733,15 @@
         <v>3731.5249</v>
       </c>
       <c r="G11" t="n">
-        <v>-275282.1970999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +763,15 @@
         <v>800</v>
       </c>
       <c r="G12" t="n">
-        <v>-275282.1970999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +793,15 @@
         <v>11353.9043</v>
       </c>
       <c r="G13" t="n">
-        <v>-275282.1970999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,22 +823,15 @@
         <v>7297.5572</v>
       </c>
       <c r="G14" t="n">
-        <v>-275282.1970999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -881,26 +853,15 @@
         <v>1656.3471</v>
       </c>
       <c r="G15" t="n">
-        <v>-275282.1970999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -922,26 +883,15 @@
         <v>743.6529</v>
       </c>
       <c r="G16" t="n">
-        <v>-275282.1970999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -963,22 +913,15 @@
         <v>1753.8167</v>
       </c>
       <c r="G17" t="n">
-        <v>-277036.0137999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1000,26 +943,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-277026.0137999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1041,26 +973,15 @@
         <v>1101</v>
       </c>
       <c r="G19" t="n">
-        <v>-277026.0137999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1082,26 +1003,15 @@
         <v>1600</v>
       </c>
       <c r="G20" t="n">
-        <v>-278626.0137999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1123,26 +1033,15 @@
         <v>153</v>
       </c>
       <c r="G21" t="n">
-        <v>-278473.0137999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1164,26 +1063,15 @@
         <v>1673</v>
       </c>
       <c r="G22" t="n">
-        <v>-276800.0137999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1205,24 +1093,15 @@
         <v>400</v>
       </c>
       <c r="G23" t="n">
-        <v>-276800.0137999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1244,24 +1123,15 @@
         <v>3664</v>
       </c>
       <c r="G24" t="n">
-        <v>-273136.0137999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,24 +1153,15 @@
         <v>400</v>
       </c>
       <c r="G25" t="n">
-        <v>-273536.0137999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,24 +1183,15 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-273546.0137999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1361,24 +1213,15 @@
         <v>4400</v>
       </c>
       <c r="G27" t="n">
-        <v>-269146.0137999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1400,24 +1243,15 @@
         <v>11600</v>
       </c>
       <c r="G28" t="n">
-        <v>-257546.0137999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1439,24 +1273,15 @@
         <v>1216</v>
       </c>
       <c r="G29" t="n">
-        <v>-257546.0137999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1478,26 +1303,15 @@
         <v>11465.0298</v>
       </c>
       <c r="G30" t="n">
-        <v>-269011.0435999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1519,26 +1333,15 @@
         <v>2797</v>
       </c>
       <c r="G31" t="n">
-        <v>-269011.0435999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J31" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1560,26 +1363,15 @@
         <v>461</v>
       </c>
       <c r="G32" t="n">
-        <v>-268550.0435999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J32" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1601,26 +1393,15 @@
         <v>16425</v>
       </c>
       <c r="G33" t="n">
-        <v>-252125.0435999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1642,24 +1423,15 @@
         <v>1200</v>
       </c>
       <c r="G34" t="n">
-        <v>-252125.0435999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1681,24 +1453,15 @@
         <v>25410</v>
       </c>
       <c r="G35" t="n">
-        <v>-226715.0435999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,24 +1483,15 @@
         <v>862</v>
       </c>
       <c r="G36" t="n">
-        <v>-226715.0435999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1759,24 +1513,15 @@
         <v>4269</v>
       </c>
       <c r="G37" t="n">
-        <v>-222446.0435999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1798,26 +1543,15 @@
         <v>870</v>
       </c>
       <c r="G38" t="n">
-        <v>-222446.0435999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1839,26 +1573,15 @@
         <v>2800</v>
       </c>
       <c r="G39" t="n">
-        <v>-219646.0435999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1880,26 +1603,15 @@
         <v>14375.8939</v>
       </c>
       <c r="G40" t="n">
-        <v>-205270.1496999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1921,26 +1633,15 @@
         <v>260</v>
       </c>
       <c r="G41" t="n">
-        <v>-205010.1496999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1962,24 +1663,15 @@
         <v>9967.120699999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-214977.2703999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2001,26 +1693,15 @@
         <v>5392</v>
       </c>
       <c r="G43" t="n">
-        <v>-220369.2703999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2042,24 +1723,15 @@
         <v>11958</v>
       </c>
       <c r="G44" t="n">
-        <v>-208411.2703999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2081,24 +1753,15 @@
         <v>18441.7828</v>
       </c>
       <c r="G45" t="n">
-        <v>-189969.4875999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2120,24 +1783,15 @@
         <v>15621.3865</v>
       </c>
       <c r="G46" t="n">
-        <v>-174348.1010999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2159,24 +1813,15 @@
         <v>306</v>
       </c>
       <c r="G47" t="n">
-        <v>-174042.1010999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2198,24 +1843,15 @@
         <v>5401.0819</v>
       </c>
       <c r="G48" t="n">
-        <v>-168641.0192</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2237,24 +1873,15 @@
         <v>28853.5452</v>
       </c>
       <c r="G49" t="n">
-        <v>-139787.474</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,26 +1903,15 @@
         <v>16412.6013</v>
       </c>
       <c r="G50" t="n">
-        <v>-156200.0753</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1.062285382830626</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.011723329425557</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2317,18 +1933,15 @@
         <v>4222.0353</v>
       </c>
       <c r="G51" t="n">
-        <v>-156200.0753</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2350,18 +1963,15 @@
         <v>3293</v>
       </c>
       <c r="G52" t="n">
-        <v>-152907.0753</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2383,18 +1993,15 @@
         <v>2034</v>
       </c>
       <c r="G53" t="n">
-        <v>-152907.0753</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2416,18 +2023,15 @@
         <v>5143</v>
       </c>
       <c r="G54" t="n">
-        <v>-147764.0753</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2449,18 +2053,15 @@
         <v>2012</v>
       </c>
       <c r="G55" t="n">
-        <v>-149776.0753</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2482,18 +2083,15 @@
         <v>3200</v>
       </c>
       <c r="G56" t="n">
-        <v>-152976.0753</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2515,18 +2113,15 @@
         <v>1241</v>
       </c>
       <c r="G57" t="n">
-        <v>-151735.0753</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2548,18 +2143,15 @@
         <v>2003</v>
       </c>
       <c r="G58" t="n">
-        <v>-153738.0753</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2581,18 +2173,15 @@
         <v>10676.3977</v>
       </c>
       <c r="G59" t="n">
-        <v>-143061.6776</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2614,18 +2203,15 @@
         <v>14324.8343</v>
       </c>
       <c r="G60" t="n">
-        <v>-128736.8433</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2647,18 +2233,15 @@
         <v>340</v>
       </c>
       <c r="G61" t="n">
-        <v>-128736.8433</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2680,18 +2263,15 @@
         <v>5269.7381</v>
       </c>
       <c r="G62" t="n">
-        <v>-134006.5814</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2713,18 +2293,15 @@
         <v>7887</v>
       </c>
       <c r="G63" t="n">
-        <v>-126119.5814</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2746,18 +2323,15 @@
         <v>7022.804</v>
       </c>
       <c r="G64" t="n">
-        <v>-133142.3854</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2779,18 +2353,15 @@
         <v>1200</v>
       </c>
       <c r="G65" t="n">
-        <v>-131942.3854</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2812,18 +2383,15 @@
         <v>4400</v>
       </c>
       <c r="G66" t="n">
-        <v>-127542.3854</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2845,18 +2413,15 @@
         <v>2408</v>
       </c>
       <c r="G67" t="n">
-        <v>-127542.3854</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2878,18 +2443,15 @@
         <v>1117.7897</v>
       </c>
       <c r="G68" t="n">
-        <v>-127542.3854</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2911,18 +2473,15 @@
         <v>10157.1208</v>
       </c>
       <c r="G69" t="n">
-        <v>-137699.5062</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2944,18 +2503,15 @@
         <v>400</v>
       </c>
       <c r="G70" t="n">
-        <v>-137299.5062</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2977,18 +2533,15 @@
         <v>8346.5386</v>
       </c>
       <c r="G71" t="n">
-        <v>-145646.0448</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3010,18 +2563,15 @@
         <v>400</v>
       </c>
       <c r="G72" t="n">
-        <v>-146046.0448</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3043,18 +2593,15 @@
         <v>4347.1402</v>
       </c>
       <c r="G73" t="n">
-        <v>-150393.185</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3076,18 +2623,15 @@
         <v>2268</v>
       </c>
       <c r="G74" t="n">
-        <v>-148125.185</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3109,18 +2653,15 @@
         <v>9028.4931</v>
       </c>
       <c r="G75" t="n">
-        <v>-139096.6919</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3142,18 +2683,15 @@
         <v>802</v>
       </c>
       <c r="G76" t="n">
-        <v>-139096.6919</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3175,18 +2713,15 @@
         <v>430</v>
       </c>
       <c r="G77" t="n">
-        <v>-139526.6919</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3208,18 +2743,15 @@
         <v>476</v>
       </c>
       <c r="G78" t="n">
-        <v>-139050.6919</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3241,18 +2773,15 @@
         <v>7593</v>
       </c>
       <c r="G79" t="n">
-        <v>-146643.6919</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3274,18 +2803,15 @@
         <v>1191</v>
       </c>
       <c r="G80" t="n">
-        <v>-146643.6919</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3307,18 +2833,15 @@
         <v>1461.3208</v>
       </c>
       <c r="G81" t="n">
-        <v>-148105.0127</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3340,18 +2863,15 @@
         <v>8558.8933</v>
       </c>
       <c r="G82" t="n">
-        <v>-148105.0127</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3373,18 +2893,15 @@
         <v>400</v>
       </c>
       <c r="G83" t="n">
-        <v>-148105.0127</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3406,18 +2923,15 @@
         <v>2299.6</v>
       </c>
       <c r="G84" t="n">
-        <v>-150404.6127</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3439,18 +2953,15 @@
         <v>21112.1148</v>
       </c>
       <c r="G85" t="n">
-        <v>-150404.6127</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3472,18 +2983,15 @@
         <v>800</v>
       </c>
       <c r="G86" t="n">
-        <v>-150404.6127</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3505,18 +3013,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>-150394.6127</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3538,18 +3043,15 @@
         <v>6010.11</v>
       </c>
       <c r="G88" t="n">
-        <v>-150394.6127</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3571,18 +3073,15 @@
         <v>23546</v>
       </c>
       <c r="G89" t="n">
-        <v>-173940.6127</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3604,18 +3103,15 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-173930.6127</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3637,18 +3133,15 @@
         <v>30</v>
       </c>
       <c r="G91" t="n">
-        <v>-173960.6127</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3670,18 +3163,15 @@
         <v>45.6</v>
       </c>
       <c r="G92" t="n">
-        <v>-174006.2127</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3703,18 +3193,15 @@
         <v>110</v>
       </c>
       <c r="G93" t="n">
-        <v>-173896.2127</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3736,18 +3223,15 @@
         <v>22.644</v>
       </c>
       <c r="G94" t="n">
-        <v>-173918.8567</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3769,18 +3253,15 @@
         <v>10.6604</v>
       </c>
       <c r="G95" t="n">
-        <v>-173929.5171</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3802,18 +3283,15 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>-173919.5171</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3835,18 +3313,15 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-173929.5171</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3868,18 +3343,15 @@
         <v>11.0956</v>
       </c>
       <c r="G98" t="n">
-        <v>-173940.6127</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3901,18 +3373,15 @@
         <v>12142.1174</v>
       </c>
       <c r="G99" t="n">
-        <v>-161798.4953</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3934,18 +3403,15 @@
         <v>12320.9669</v>
       </c>
       <c r="G100" t="n">
-        <v>-149477.5284</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3967,18 +3433,15 @@
         <v>10797.13</v>
       </c>
       <c r="G101" t="n">
-        <v>-160274.6584</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4000,18 +3463,15 @@
         <v>10748.1065</v>
       </c>
       <c r="G102" t="n">
-        <v>-160274.6584</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4033,18 +3493,15 @@
         <v>7059.6441</v>
       </c>
       <c r="G103" t="n">
-        <v>-167334.3025</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4066,18 +3523,15 @@
         <v>20289.1891</v>
       </c>
       <c r="G104" t="n">
-        <v>-187623.4916</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4099,18 +3553,15 @@
         <v>2769.1903</v>
       </c>
       <c r="G105" t="n">
-        <v>-190392.6819</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4132,18 +3583,15 @@
         <v>800</v>
       </c>
       <c r="G106" t="n">
-        <v>-189592.6819</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4165,18 +3613,15 @@
         <v>4951.5643</v>
       </c>
       <c r="G107" t="n">
-        <v>-194544.2462</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4198,18 +3643,15 @@
         <v>1600</v>
       </c>
       <c r="G108" t="n">
-        <v>-196144.2462</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4231,18 +3673,15 @@
         <v>15</v>
       </c>
       <c r="G109" t="n">
-        <v>-196129.2462</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4264,18 +3703,15 @@
         <v>24357.3986</v>
       </c>
       <c r="G110" t="n">
-        <v>-171771.8476</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4297,18 +3733,15 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-171761.8476</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4330,18 +3763,15 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>-171751.8476</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4363,18 +3793,15 @@
         <v>400</v>
       </c>
       <c r="G113" t="n">
-        <v>-172151.8476</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4396,18 +3823,15 @@
         <v>55</v>
       </c>
       <c r="G114" t="n">
-        <v>-172151.8476</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4429,18 +3853,15 @@
         <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>-172151.8476</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4462,18 +3883,15 @@
         <v>205</v>
       </c>
       <c r="G116" t="n">
-        <v>-172151.8476</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4495,18 +3913,15 @@
         <v>2058.0864</v>
       </c>
       <c r="G117" t="n">
-        <v>-174209.934</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4528,18 +3943,15 @@
         <v>19433.287</v>
       </c>
       <c r="G118" t="n">
-        <v>-193643.221</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4561,18 +3973,15 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>-193633.221</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4594,18 +4003,15 @@
         <v>1200</v>
       </c>
       <c r="G120" t="n">
-        <v>-194833.221</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4627,18 +4033,15 @@
         <v>1387.055</v>
       </c>
       <c r="G121" t="n">
-        <v>-193446.166</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4660,18 +4063,15 @@
         <v>661.145</v>
       </c>
       <c r="G122" t="n">
-        <v>-193446.166</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4693,18 +4093,15 @@
         <v>800</v>
       </c>
       <c r="G123" t="n">
-        <v>-194246.166</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4726,18 +4123,15 @@
         <v>25496.5051</v>
       </c>
       <c r="G124" t="n">
-        <v>-219742.6711</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4759,18 +4153,15 @@
         <v>10.11</v>
       </c>
       <c r="G125" t="n">
-        <v>-219732.5611</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4792,18 +4183,15 @@
         <v>1200</v>
       </c>
       <c r="G126" t="n">
-        <v>-218532.5611</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4825,18 +4213,15 @@
         <v>12821.51716500554</v>
       </c>
       <c r="G127" t="n">
-        <v>-205711.0439349945</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4858,18 +4243,15 @@
         <v>5000</v>
       </c>
       <c r="G128" t="n">
-        <v>-200711.0439349945</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
